--- a/data/marvel_sexo.xlsx
+++ b/data/marvel_sexo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pepemm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F3B5DF-07BA-7540-A3F1-153D6D8097B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E245719F-DE5A-824B-8A88-98C544CEAB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{45D07C04-B09C-894B-BF85-048D1C2EEB4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{45D07C04-B09C-894B-BF85-048D1C2EEB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Nombre superhéroe</t>
   </si>
   <si>
-    <t>Nombre humano</t>
-  </si>
-  <si>
     <t>Hulk</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>HOMBRE</t>
+  </si>
+  <si>
+    <t>Sexo</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,55 +454,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
